--- a/results/DecisionTreeClassifier_tpesearch-estimator_df.xlsx
+++ b/results/DecisionTreeClassifier_tpesearch-estimator_df.xlsx
@@ -508,7 +508,7 @@
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector', RandomUnderSampler(random_state=42)),
                 ('model',
-                 DecisionTreeClassifier(class_weight='balanced', max_depth=6,
+                 DecisionTreeClassifier(class_weight='balanced', max_depth=7,
                                         max_features='sqrt',
                                         min_samples_leaf=15,
                                         min_samples_split=10,
@@ -527,11 +527,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': RandomUnderSampler(random_state=42), 'model__criterion': 'gini', 'model__max_depth': 6, 'model__min_samples_split': 10, 'model__min_samples_leaf': 15, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': RandomUnderSampler(random_state=42), 'model__criterion': 'gini', 'model__max_depth': 7, 'model__min_samples_split': 10, 'model__min_samples_leaf': 15, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5916030539658215</v>
+        <v>0.5737510483862617</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -542,10 +542,10 @@
         <v>42</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7121122738459804</v>
+        <v>0.7225937581956465</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.4534180278281911</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[0 1 1 1 1 0 1 1 0 1 1 1 1 0 1 0 0 0 1 0 0 0 1 1]</t>
+          <t>[0 1 1 1 1 1 1 0 0 1 1 1 0 1 1 0 0 0 1 1 0 0 1 1]</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
                  DecisionTreeClassifier(class_weight='balanced', max_depth=3,
                                         max_features='sqrt',
                                         min_samples_leaf=15,
-                                        min_samples_split=8,
+                                        min_samples_split=15,
                                         random_state=42))])</t>
         </is>
       </c>
@@ -605,11 +605,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': RandomUnderSampler(random_state=42), 'model__criterion': 'gini', 'model__max_depth': 3, 'model__min_samples_split': 8, 'model__min_samples_leaf': 15, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': RandomUnderSampler(random_state=42), 'model__criterion': 'gini', 'model__max_depth': 3, 'model__min_samples_split': 15, 'model__min_samples_leaf': 15, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5400786607613234</v>
+        <v>0.5413530882153847</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -620,10 +620,10 @@
         <v>69</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6690182245737802</v>
+        <v>0.6799158748411306</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 1 1 0 1 0 1 1 1 0 1 0 1 1 1 1 1 0 1 1]</t>
+          <t>[1 1 1 0 1 1 0 0 0 0 1 1 1 1 1 1 0 0 1 1 0 0 0 1]</t>
         </is>
       </c>
     </row>
@@ -641,6 +641,84 @@
         <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler',
+                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                                   transformers=[('StandardScaler',
+                                                  StandardScaler(),
+                                                  ['AE_HR', 'AE_V',
+                                                   'AbsOffAxis_HR',
+                                                   'AbsOffAxis_V',
+                                                   'AbsOnAxis_HR',
+                                                   'AbsOnAxis_V', 'BallPath_HR',
+                                                   'BallPath_V', 'CMT_HR',
+                                                   'CMT_V', 'Corrective_HR',
+                                                   'Corrective_V', 'Delta_AE',
+                                                   'Delta_Fullpath', 'Delta_MT',
+                                                   'Delta_OffAxis',
+                                                   'Delta_OnAxis', 'Delta_PV',
+                                                   'Delta_RT', 'FullPath_HR',
+                                                   'FullPath_V', 'MT_HR',
+                                                   'MT_V', 'PeakV_HR',
+                                                   'PeakV_V', 'RT_HR', 'RT_V',
+                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
+                ('selector', RandomUnderSampler(random_state=42)),
+                ('model',
+                 DecisionTreeClassifier(class_weight='balanced', max_depth=7,
+                                        max_features='sqrt',
+                                        min_samples_leaf=14,
+                                        min_samples_split=15,
+                                        random_state=42))])</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                  transformers=[('StandardScaler', StandardScaler(),
+                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
+                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
+                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
+                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
+                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
+                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
+                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
+                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': RandomUnderSampler(random_state=42), 'model__criterion': 'gini', 'model__max_depth': 7, 'model__min_samples_split': 15, 'model__min_samples_leaf': 14, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5201539327694935</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tree-Parzen Estimator</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>23</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6469243597424851</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[0 0 1 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[0 0 1 0 0 1 0 0 1 1 1 1 0 1 1 1 0 0 1 1 1 1 0 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler',
                  ColumnTransformer(n_jobs=-1, remainder='passthrough',
@@ -665,13 +743,12 @@
                 ('selector', RandomUnderSampler(random_state=42)),
                 ('model',
                  DecisionTreeClassifier(class_weight='balanced', max_depth=5,
-                                        max_features='sqrt',
-                                        min_samples_leaf=14,
-                                        min_samples_split=11,
+                                        max_features='sqrt', min_samples_leaf=9,
+                                        min_samples_split=15,
                                         random_state=42))])</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>{'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
@@ -683,42 +760,42 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': RandomUnderSampler(random_state=42), 'model__criterion': 'gini', 'model__max_depth': 5, 'model__min_samples_split': 11, 'model__min_samples_leaf': 14, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5249192140624366</v>
-      </c>
-      <c r="E4" t="inlineStr">
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': RandomUnderSampler(random_state=42), 'model__criterion': 'gini', 'model__max_depth': 5, 'model__min_samples_split': 15, 'model__min_samples_leaf': 9, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5992181647639986</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Tree-Parzen Estimator</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>23</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.6469243597424851</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>[0 0 1 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>[0 0 1 0 0 1 0 0 1 1 1 1 0 1 1 1 0 0 1 1 1 1 0 1]</t>
+      <c r="F5" t="n">
+        <v>99</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7435179549604384</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4207459207459207</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[0 0 1 1 1 0 0 0 0 1 0 1 1 0 0 1 1 1 1 0 1 0 0 1]</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler',
                  ColumnTransformer(n_jobs=-1, remainder='passthrough',
@@ -742,13 +819,14 @@
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector', RandomUnderSampler(random_state=42)),
                 ('model',
-                 DecisionTreeClassifier(class_weight='balanced', max_depth=6,
-                                        max_features='sqrt', min_samples_leaf=9,
-                                        min_samples_split=13,
+                 DecisionTreeClassifier(class_weight='balanced', max_depth=4,
+                                        max_features='sqrt',
+                                        min_samples_leaf=13,
+                                        min_samples_split=12,
                                         random_state=42))])</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>{'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
@@ -760,88 +838,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': RandomUnderSampler(random_state=42), 'model__criterion': 'gini', 'model__max_depth': 6, 'model__min_samples_split': 13, 'model__min_samples_leaf': 9, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6590793640932286</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Tree-Parzen Estimator</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>99</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.7435179549604384</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.4207459207459207</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1]</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 1 0 0 0 0 1 0 1 1 0 0 1 1 1 1 0 1 0 0 1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler',
-                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
-                                   transformers=[('StandardScaler',
-                                                  StandardScaler(),
-                                                  ['AE_HR', 'AE_V',
-                                                   'AbsOffAxis_HR',
-                                                   'AbsOffAxis_V',
-                                                   'AbsOnAxis_HR',
-                                                   'AbsOnAxis_V', 'BallPath_HR',
-                                                   'BallPath_V', 'CMT_HR',
-                                                   'CMT_V', 'Corrective_HR',
-                                                   'Corrective_V', 'Delta_AE',
-                                                   'Delta_Fullpath', 'Delta_MT',
-                                                   'Delta_OffAxis',
-                                                   'Delta_OnAxis', 'Delta_PV',
-                                                   'Delta_RT', 'FullPath_HR',
-                                                   'FullPath_V', 'MT_HR',
-                                                   'MT_V', 'PeakV_HR',
-                                                   'PeakV_V', 'RT_HR', 'RT_V',
-                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector', RandomUnderSampler(random_state=42)),
-                ('model',
-                 DecisionTreeClassifier(class_weight='balanced', max_depth=6,
-                                        max_features='sqrt', min_samples_leaf=8,
-                                        min_samples_split=14,
-                                        random_state=42))])</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
-                  transformers=[('StandardScaler', StandardScaler(),
-                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
-                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
-                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
-                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
-                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
-                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
-                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
-                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': RandomUnderSampler(random_state=42), 'model__criterion': 'gini', 'model__max_depth': 6, 'model__min_samples_split': 14, 'model__min_samples_leaf': 8, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': RandomUnderSampler(random_state=42), 'model__criterion': 'gini', 'model__max_depth': 4, 'model__min_samples_split': 12, 'model__min_samples_leaf': 13, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5730750861363999</v>
+        <v>0.5853511096434681</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -852,10 +853,10 @@
         <v>89</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7795859732630066</v>
+        <v>0.7003882915173238</v>
       </c>
       <c r="H6" t="n">
-        <v>0.734375</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -864,7 +865,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[0 0 1 1 1 1 0 1 1 1 1 1 0 1 1 1 1 1 0 1 0 1 1 1]</t>
+          <t>[0 0 1 1 1 0 0 0 1 1 1 0 0 1 1 1 0 1 0 1 1 0 1 1]</t>
         </is>
       </c>
     </row>

--- a/results/DecisionTreeClassifier_tpesearch-estimator_df.xlsx
+++ b/results/DecisionTreeClassifier_tpesearch-estimator_df.xlsx
@@ -510,12 +510,246 @@
                 ('model',
                  DecisionTreeClassifier(class_weight='balanced', max_depth=7,
                                         max_features='sqrt',
+                                        min_samples_leaf=14,
+                                        min_samples_split=14,
+                                        random_state=42))])</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                  transformers=[('StandardScaler', StandardScaler(),
+                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
+                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
+                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
+                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
+                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
+                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
+                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
+                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': RandomUnderSampler(random_state=42), 'model__criterion': 'gini', 'model__max_depth': 7, 'model__min_samples_split': 14, 'model__min_samples_leaf': 14, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5373138144591234</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Tree-Parzen Estimator</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7420548476619618</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.615079365079365</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 1 0 1 0 1 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 0 1 1 0 1 1 1 1 0 1 0 0 1 0 1 0 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler',
+                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                                   transformers=[('StandardScaler',
+                                                  StandardScaler(),
+                                                  ['AE_HR', 'AE_V',
+                                                   'AbsOffAxis_HR',
+                                                   'AbsOffAxis_V',
+                                                   'AbsOnAxis_HR',
+                                                   'AbsOnAxis_V', 'BallPath_HR',
+                                                   'BallPath_V', 'CMT_HR',
+                                                   'CMT_V', 'Corrective_HR',
+                                                   'Corrective_V', 'Delta_AE',
+                                                   'Delta_Fullpath', 'Delta_MT',
+                                                   'Delta_OffAxis',
+                                                   'Delta_OnAxis', 'Delta_PV',
+                                                   'Delta_RT', 'FullPath_HR',
+                                                   'FullPath_V', 'MT_HR',
+                                                   'MT_V', 'PeakV_HR',
+                                                   'PeakV_V', 'RT_HR', 'RT_V',
+                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
+                ('selector', RandomUnderSampler(random_state=42)),
+                ('model',
+                 DecisionTreeClassifier(class_weight='balanced', max_depth=5,
+                                        max_features='sqrt',
+                                        min_samples_leaf=13,
+                                        min_samples_split=11,
+                                        random_state=42))])</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                  transformers=[('StandardScaler', StandardScaler(),
+                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
+                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
+                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
+                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
+                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
+                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
+                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
+                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': RandomUnderSampler(random_state=42), 'model__criterion': 'gini', 'model__max_depth': 5, 'model__min_samples_split': 11, 'model__min_samples_leaf': 13, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5451768857516603</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Tree-Parzen Estimator</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>69</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6161064741709903</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.3907407407407408</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 1 0 0 0 1 1 1 0 0 0 1 0 1 0 1 1 0 0 1 0]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[0 0 0 1 0 0 0 1 1 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler',
+                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                                   transformers=[('StandardScaler',
+                                                  StandardScaler(),
+                                                  ['AE_HR', 'AE_V',
+                                                   'AbsOffAxis_HR',
+                                                   'AbsOffAxis_V',
+                                                   'AbsOnAxis_HR',
+                                                   'AbsOnAxis_V', 'BallPath_HR',
+                                                   'BallPath_V', 'CMT_HR',
+                                                   'CMT_V', 'Corrective_HR',
+                                                   'Corrective_V', 'Delta_AE',
+                                                   'Delta_Fullpath', 'Delta_MT',
+                                                   'Delta_OffAxis',
+                                                   'Delta_OnAxis', 'Delta_PV',
+                                                   'Delta_RT', 'FullPath_HR',
+                                                   'FullPath_V', 'MT_HR',
+                                                   'MT_V', 'PeakV_HR',
+                                                   'PeakV_V', 'RT_HR', 'RT_V',
+                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
+                ('selector', RandomUnderSampler(random_state=42)),
+                ('model',
+                 DecisionTreeClassifier(class_weight='balanced', max_depth=4,
+                                        max_features='sqrt',
+                                        min_samples_leaf=12,
+                                        min_samples_split=12,
+                                        random_state=42))])</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                  transformers=[('StandardScaler', StandardScaler(),
+                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
+                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
+                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
+                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
+                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
+                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
+                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
+                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': RandomUnderSampler(random_state=42), 'model__criterion': 'gini', 'model__max_depth': 4, 'model__min_samples_split': 12, 'model__min_samples_leaf': 12, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5943891520378936</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tree-Parzen Estimator</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>23</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6952322986406978</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5773809523809524</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler',
+                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                                   transformers=[('StandardScaler',
+                                                  StandardScaler(),
+                                                  ['AE_HR', 'AE_V',
+                                                   'AbsOffAxis_HR',
+                                                   'AbsOffAxis_V',
+                                                   'AbsOnAxis_HR',
+                                                   'AbsOnAxis_V', 'BallPath_HR',
+                                                   'BallPath_V', 'CMT_HR',
+                                                   'CMT_V', 'Corrective_HR',
+                                                   'Corrective_V', 'Delta_AE',
+                                                   'Delta_Fullpath', 'Delta_MT',
+                                                   'Delta_OffAxis',
+                                                   'Delta_OnAxis', 'Delta_PV',
+                                                   'Delta_RT', 'FullPath_HR',
+                                                   'FullPath_V', 'MT_HR',
+                                                   'MT_V', 'PeakV_HR',
+                                                   'PeakV_V', 'RT_HR', 'RT_V',
+                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
+                ('selector', RandomUnderSampler(random_state=42)),
+                ('model',
+                 DecisionTreeClassifier(class_weight='balanced', max_depth=7,
+                                        max_features='sqrt',
                                         min_samples_leaf=15,
                                         min_samples_split=10,
                                         random_state=42))])</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>{'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
@@ -530,39 +764,39 @@
                                   'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': RandomUnderSampler(random_state=42), 'model__criterion': 'gini', 'model__max_depth': 7, 'model__min_samples_split': 10, 'model__min_samples_leaf': 15, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0.5737510483862617</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D5" t="n">
+        <v>0.5397862320745616</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Tree-Parzen Estimator</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="F5" t="n">
         <v>42</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.7225937581956465</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.4534180278281911</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[1 0 1 0 0 1 1 1 1 1 1 1 1 0 1 0 0 0 1 0 1 1 0 0]</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 1 1 1 0 0 1 1 1 0 1 1 0 0 0 1 1 0 0 1 1]</t>
+      <c r="G5" t="n">
+        <v>0.6341549540946755</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[1 0 1 0 0 0 1 1 1 1 1 1 1 0 0 0 0 0 0 0 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 1 1 1 1 1 0 1 1 0]</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler',
                  ColumnTransformer(n_jobs=-1, remainder='passthrough',
@@ -588,12 +822,12 @@
                 ('model',
                  DecisionTreeClassifier(class_weight='balanced', max_depth=3,
                                         max_features='sqrt',
-                                        min_samples_leaf=15,
+                                        min_samples_leaf=10,
                                         min_samples_split=15,
                                         random_state=42))])</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>{'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
@@ -605,244 +839,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': RandomUnderSampler(random_state=42), 'model__criterion': 'gini', 'model__max_depth': 3, 'model__min_samples_split': 15, 'model__min_samples_leaf': 15, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5413530882153847</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Tree-Parzen Estimator</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>69</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.6799158748411306</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[1 1 1 0 1 1 0 0 0 0 1 1 1 1 1 1 0 0 1 1 0 0 0 1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler',
-                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
-                                   transformers=[('StandardScaler',
-                                                  StandardScaler(),
-                                                  ['AE_HR', 'AE_V',
-                                                   'AbsOffAxis_HR',
-                                                   'AbsOffAxis_V',
-                                                   'AbsOnAxis_HR',
-                                                   'AbsOnAxis_V', 'BallPath_HR',
-                                                   'BallPath_V', 'CMT_HR',
-                                                   'CMT_V', 'Corrective_HR',
-                                                   'Corrective_V', 'Delta_AE',
-                                                   'Delta_Fullpath', 'Delta_MT',
-                                                   'Delta_OffAxis',
-                                                   'Delta_OnAxis', 'Delta_PV',
-                                                   'Delta_RT', 'FullPath_HR',
-                                                   'FullPath_V', 'MT_HR',
-                                                   'MT_V', 'PeakV_HR',
-                                                   'PeakV_V', 'RT_HR', 'RT_V',
-                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector', RandomUnderSampler(random_state=42)),
-                ('model',
-                 DecisionTreeClassifier(class_weight='balanced', max_depth=7,
-                                        max_features='sqrt',
-                                        min_samples_leaf=14,
-                                        min_samples_split=15,
-                                        random_state=42))])</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
-                  transformers=[('StandardScaler', StandardScaler(),
-                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
-                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
-                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
-                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
-                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
-                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
-                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
-                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': RandomUnderSampler(random_state=42), 'model__criterion': 'gini', 'model__max_depth': 7, 'model__min_samples_split': 15, 'model__min_samples_leaf': 14, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5201539327694935</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Tree-Parzen Estimator</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>23</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.6469243597424851</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>[0 0 1 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>[0 0 1 0 0 1 0 0 1 1 1 1 0 1 1 1 0 0 1 1 1 1 0 1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler',
-                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
-                                   transformers=[('StandardScaler',
-                                                  StandardScaler(),
-                                                  ['AE_HR', 'AE_V',
-                                                   'AbsOffAxis_HR',
-                                                   'AbsOffAxis_V',
-                                                   'AbsOnAxis_HR',
-                                                   'AbsOnAxis_V', 'BallPath_HR',
-                                                   'BallPath_V', 'CMT_HR',
-                                                   'CMT_V', 'Corrective_HR',
-                                                   'Corrective_V', 'Delta_AE',
-                                                   'Delta_Fullpath', 'Delta_MT',
-                                                   'Delta_OffAxis',
-                                                   'Delta_OnAxis', 'Delta_PV',
-                                                   'Delta_RT', 'FullPath_HR',
-                                                   'FullPath_V', 'MT_HR',
-                                                   'MT_V', 'PeakV_HR',
-                                                   'PeakV_V', 'RT_HR', 'RT_V',
-                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector', RandomUnderSampler(random_state=42)),
-                ('model',
-                 DecisionTreeClassifier(class_weight='balanced', max_depth=5,
-                                        max_features='sqrt', min_samples_leaf=9,
-                                        min_samples_split=15,
-                                        random_state=42))])</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
-                  transformers=[('StandardScaler', StandardScaler(),
-                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
-                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
-                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
-                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
-                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
-                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
-                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
-                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': RandomUnderSampler(random_state=42), 'model__criterion': 'gini', 'model__max_depth': 5, 'model__min_samples_split': 15, 'model__min_samples_leaf': 9, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5992181647639986</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Tree-Parzen Estimator</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>99</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.7435179549604384</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.4207459207459207</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1]</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 1 0 0 0 0 1 0 1 1 0 0 1 1 1 1 0 1 0 0 1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler',
-                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
-                                   transformers=[('StandardScaler',
-                                                  StandardScaler(),
-                                                  ['AE_HR', 'AE_V',
-                                                   'AbsOffAxis_HR',
-                                                   'AbsOffAxis_V',
-                                                   'AbsOnAxis_HR',
-                                                   'AbsOnAxis_V', 'BallPath_HR',
-                                                   'BallPath_V', 'CMT_HR',
-                                                   'CMT_V', 'Corrective_HR',
-                                                   'Corrective_V', 'Delta_AE',
-                                                   'Delta_Fullpath', 'Delta_MT',
-                                                   'Delta_OffAxis',
-                                                   'Delta_OnAxis', 'Delta_PV',
-                                                   'Delta_RT', 'FullPath_HR',
-                                                   'FullPath_V', 'MT_HR',
-                                                   'MT_V', 'PeakV_HR',
-                                                   'PeakV_V', 'RT_HR', 'RT_V',
-                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector', RandomUnderSampler(random_state=42)),
-                ('model',
-                 DecisionTreeClassifier(class_weight='balanced', max_depth=4,
-                                        max_features='sqrt',
-                                        min_samples_leaf=13,
-                                        min_samples_split=12,
-                                        random_state=42))])</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
-                  transformers=[('StandardScaler', StandardScaler(),
-                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
-                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
-                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
-                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
-                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
-                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
-                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
-                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': RandomUnderSampler(random_state=42), 'model__criterion': 'gini', 'model__max_depth': 4, 'model__min_samples_split': 12, 'model__min_samples_leaf': 13, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'selector': RandomUnderSampler(random_state=42), 'model__criterion': 'gini', 'model__max_depth': 3, 'model__min_samples_split': 15, 'model__min_samples_leaf': 10, 'model__max_features': 'sqrt', 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5853511096434681</v>
+        <v>0.5668798384278261</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -853,19 +854,19 @@
         <v>89</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7003882915173238</v>
+        <v>0.7236268526591106</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6000948766603416</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[1 0 1 0 1 1 0 0 1 1 0 1 0 1 1 1 1 1 0 1 0 0 1 0]</t>
+          <t>[1 0 1 0 1 1 0 0 0 1 0 1 0 1 1 1 0 1 0 1 0 0 0 0]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[0 0 1 1 1 0 0 0 1 1 1 0 0 1 1 1 0 1 0 1 1 0 1 1]</t>
+          <t>[0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 1]</t>
         </is>
       </c>
     </row>
